--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakki\OneDrive\Desktop\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Test_case</t>
   </si>
@@ -153,12 +153,19 @@
   </si>
   <si>
     <t>Retail</t>
+  </si>
+  <si>
+    <t>tyts</t>
+  </si>
+  <si>
+    <t>TestYantra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -494,10 +501,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -528,13 +535,10 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+    <row r="3">
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -668,10 +672,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -767,8 +771,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakki\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MavenProject\WSCM23GitPractice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E17803-2E89-4392-BA9B-5E58616F9387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EB354C-C0A3-4F2D-B660-965AC5961843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="1" r:id="rId1"/>
-    <sheet name="contacts" sheetId="2" r:id="rId2"/>
-    <sheet name="multipleOrgs" sheetId="3" r:id="rId3"/>
+    <sheet name="CustomerDeatils" sheetId="4" r:id="rId2"/>
+    <sheet name="contacts" sheetId="2" r:id="rId3"/>
+    <sheet name="multipleOrgs" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>Test_case</t>
   </si>
@@ -155,17 +156,37 @@
     <t>Retail</t>
   </si>
   <si>
-    <t>tyts</t>
-  </si>
-  <si>
     <t>TestYantra</t>
+  </si>
+  <si>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>PakkiraReddy</t>
+  </si>
+  <si>
+    <t>Btech Mechanical</t>
+  </si>
+  <si>
+    <t>Gopi</t>
+  </si>
+  <si>
+    <t>Automation Tester</t>
+  </si>
+  <si>
+    <t>Ramprasad</t>
+  </si>
+  <si>
+    <t>Mechanic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,19 +516,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +542,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -535,12 +556,12 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +577,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -572,7 +593,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -580,7 +601,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +617,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -612,7 +633,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -620,7 +641,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +659,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -663,6 +684,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975C9C59-10EC-41F6-8FEF-AC75C20B088A}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E3CBB1-B30A-4154-AA27-ED2C5746D222}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -672,10 +744,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -761,7 +833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F37F200-48C7-443E-A646-0DE0722F0E3E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -771,8 +843,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
